--- a/files/reports/2021-10-19/resources-report.xlsx
+++ b/files/reports/2021-10-19/resources-report.xlsx
@@ -880,6 +880,15 @@
       <c r="A11" t="s">
         <v>17</v>
       </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>152</v>
       </c>
@@ -1655,13 +1664,13 @@
         <v>693</v>
       </c>
       <c r="F41">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="G41">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H41" s="1">
-        <v>0.7619</v>
+        <v>0.7734</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2014,6 +2023,15 @@
       <c r="A56" t="s">
         <v>61</v>
       </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
       <c r="E56">
         <v>1390</v>
       </c>
@@ -2031,22 +2049,40 @@
       <c r="A57" t="s">
         <v>62</v>
       </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
       <c r="E57">
         <v>3135</v>
       </c>
       <c r="F57">
-        <v>2175</v>
+        <v>2181</v>
       </c>
       <c r="G57">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="H57" s="1">
-        <v>0.6938</v>
+        <v>0.6957</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>63</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
       </c>
       <c r="E58">
         <v>10638</v>
